--- a/medicine/Médecine vétérinaire/Antoine_Roux_(auteur_occitan)/Antoine_Roux_(auteur_occitan).xlsx
+++ b/medicine/Médecine vétérinaire/Antoine_Roux_(auteur_occitan)/Antoine_Roux_(auteur_occitan).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine Roux (Lunel-Viel, 13 novembre 1842[1], Lunel-Viel, 11 janvier 1915[2]), surnommé Lou Felibre dou Dardaioun[3], est un vétérinaire qui a été un homme politique dans sa ville natale. Membre du Félibrige latin, il a composé des poèmes exaltant l'amour du terroir ainsi que des pièces de théâtre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Roux (Lunel-Viel, 13 novembre 1842, Lunel-Viel, 11 janvier 1915), surnommé Lou Felibre dou Dardaioun, est un vétérinaire qui a été un homme politique dans sa ville natale. Membre du Félibrige latin, il a composé des poèmes exaltant l'amour du terroir ainsi que des pièces de théâtre.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un maréchal-ferrant, Antoine Roux fait ses études dans l'école du village puis à Montpellier. À 17 ans, il entre à l'école vétérinaire de Lyon. Il revient à Lunel-Viel à 21 ans. Le 15 mai 1866, il épouse à Lunel-Viel Virginie Fournet (1844-1892)[4]. Leur fille Marie Antoinette naît en 1869. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un maréchal-ferrant, Antoine Roux fait ses études dans l'école du village puis à Montpellier. À 17 ans, il entre à l'école vétérinaire de Lyon. Il revient à Lunel-Viel à 21 ans. Le 15 mai 1866, il épouse à Lunel-Viel Virginie Fournet (1844-1892). Leur fille Marie Antoinette naît en 1869. 
 Antoine Roux fait partie, pendant 20 ans, du Conseil municipal de la commune. En 1870, il est nommé adjoint, puis maire en 1878. Il démissionne un an après, le 23 février 1879. Il se dédie alors à la littérature. Il est vice-président du Félibrige Latin. Il a collaboré à la Revue des langues romanes. Il décède à l'âge de 72 ans. La rue principale du centre ancien de Lunel-Viel porte son nom.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Roux était officier d'Académie.
 </t>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Poésies
-(oc + fr) Antoine Roux, Lou véla e l'anel : legenda roumana, Montpellier, Impr. Hamelin Frères, 1880, 14 p. (OCLC 743141293, BNF 31261431).
+          <t>Poésies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(oc + fr) Antoine Roux, Lou véla e l'anel : legenda roumana, Montpellier, Impr. Hamelin Frères, 1880, 14 p. (OCLC 743141293, BNF 31261431).
 (oc + fr) Antoine Roux, Lou mera de vilage, Montpellier, Empr. Centrala dau Miejour, 1880, 12 p. (OCLC 799092481, BNF 31261423, lire en ligne) (manuscrit en ligne chez Occitanica).
 Per estre mèra de vilage
 Fou avedre un famous courage.
@@ -595,13 +616,81 @@
 Candillargues (1902, 15 p.).
 Lou paraploja de Laureta ; L'aiga de Balaruc (1909, 4 p.).
 (oc) Antoine Roux (préf. Jean Charles-Brun), Pescalunetas : Petites lunelloises : recueil de poésies languedociennes, Montpellier, Impr. Générale du Midi, 1912, 19 p. (OCLC 496011294).
-La pescaluna : Aux lunellois (As Pescalunas), Paroles de Antoine Roux ; Musique d'Edmond Daumas.
-Pièces de Théâtre
-(oc) Antoine Roux, Lou Testament d'un Sarra-piastras : comédie jouée le 20 février 1881 à Montpelliers, Montpellier, Empr. Centrala dau Miejour, 1890, 80 p. (OCLC 799700451, BNF 31261430).
+La pescaluna : Aux lunellois (As Pescalunas), Paroles de Antoine Roux ; Musique d'Edmond Daumas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antoine_Roux_(auteur_occitan)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Roux_(auteur_occitan)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pièces de Théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(oc) Antoine Roux, Lou Testament d'un Sarra-piastras : comédie jouée le 20 février 1881 à Montpelliers, Montpellier, Empr. Centrala dau Miejour, 1890, 80 p. (OCLC 799700451, BNF 31261430).
 (oc) Antoine Roux, Lous Caramans ou lous dous bessouns : coumedia en cinq partidas e en verses, Montpellier, Empr. Centrala dau Miejour, 1896, 197 p. (OCLC 496026658, BNF 31261418).
-(oc) Antoine Roux, Lou jougadou : coumedia en cinq partidas e en verses, Montpellier, Empr. Centrala dau Miejou, 1897, 68 p. (OCLC 490135885, BNF 31261421).
-Autres
-Glanes félibresques trouvées dans le champ vétérinaire, 1906.</t>
+(oc) Antoine Roux, Lou jougadou : coumedia en cinq partidas e en verses, Montpellier, Empr. Centrala dau Miejou, 1897, 68 p. (OCLC 490135885, BNF 31261421).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antoine_Roux_(auteur_occitan)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Roux_(auteur_occitan)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Glanes félibresques trouvées dans le champ vétérinaire, 1906.</t>
         </is>
       </c>
     </row>
